--- a/0378-Oct-08-2015-Collision-Simulation-K.xlsx
+++ b/0378-Oct-08-2015-Collision-Simulation-K.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20640" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="195" windowWidth="20640" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Height</t>
   </si>
@@ -64,14 +64,21 @@
   </si>
   <si>
     <t>Cubic</t>
+  </si>
+  <si>
+    <t>Cubic coeffs</t>
+  </si>
+  <si>
+    <t>Quadratic coeffs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -154,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,6 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,11 +476,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88084992"/>
-        <c:axId val="88085568"/>
+        <c:axId val="141862592"/>
+        <c:axId val="141863168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88084992"/>
+        <c:axId val="141862592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,12 +526,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88085568"/>
+        <c:crossAx val="141863168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88085568"/>
+        <c:axId val="141863168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88084992"/>
+        <c:crossAx val="141862592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -907,16 +915,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:X31"/>
+  <dimension ref="C3:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="O19" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35:S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:24" x14ac:dyDescent="0.25">
@@ -1421,17 +1433,17 @@
       <c r="C21">
         <v>10.196999999999999</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="8">
         <f t="array" ref="R21:U24">LINEST(J15:J20,G15:G20^{1,2,3},FALSE,TRUE)</f>
         <v>2534468.2669849354</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="8">
         <v>-20795.820587164511</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="8">
         <v>2127.9385296623559</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1566,6 +1578,60 @@
       </c>
       <c r="V31" t="e">
         <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>48234.559097832098</v>
+      </c>
+      <c r="S35">
+        <v>1699.4727655826005</v>
+      </c>
+    </row>
+    <row r="37" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>2534468.26698494</v>
+      </c>
+      <c r="S38">
+        <v>-20795.820587164511</v>
+      </c>
+      <c r="T38">
+        <v>2127.9385296623559</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f>R38/$R$38</f>
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <f t="shared" ref="S39:T39" si="4">S38/$R$38</f>
+        <v>-8.2052006166578213E-3</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="4"/>
+        <v>8.3959959466914098E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>-8.2052006166578369E-3</v>
+      </c>
+      <c r="T40">
+        <v>8.395995946691425E-4</v>
       </c>
     </row>
   </sheetData>

--- a/0378-Oct-08-2015-Collision-Simulation-K.xlsx
+++ b/0378-Oct-08-2015-Collision-Simulation-K.xlsx
@@ -78,7 +78,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -173,6 +173,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -182,7 +183,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,10 +266,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$15:$G$20</c:f>
+              <c:f>Sheet1!$G$15:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -287,16 +287,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.8799999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2400000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4200000000000003E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$15:$J$20</c:f>
+              <c:f>Sheet1!$J$15:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -314,6 +320,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>49.447999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.361000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,19 +385,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1823697103882385</c:v>
+                  <c:v>9.3810338223515117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.253627367578297</c:v>
+                  <c:v>19.500148868328754</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.303877159973613</c:v>
+                  <c:v>30.483607122448632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.474771099056021</c:v>
+                  <c:v>39.535408959151582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.998110560490659</c:v>
+                  <c:v>48.890170330564885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -449,19 +461,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1823697103882385</c:v>
+                  <c:v>9.3810338223515117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.253627367578297</c:v>
+                  <c:v>19.500148868328754</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.303877159973613</c:v>
+                  <c:v>30.483607122448632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.474771099056021</c:v>
+                  <c:v>39.535408959151582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.998110560490659</c:v>
+                  <c:v>48.890170330564885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,11 +488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141862592"/>
-        <c:axId val="141863168"/>
+        <c:axId val="141421376"/>
+        <c:axId val="141421952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141862592"/>
+        <c:axId val="141421376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,12 +538,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141863168"/>
+        <c:crossAx val="141421952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141863168"/>
+        <c:axId val="141421952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141862592"/>
+        <c:crossAx val="141421376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -596,15 +608,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -917,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O19" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35:S35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,14 +946,14 @@
     <row r="3" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
@@ -1158,6 +1170,32 @@
         <v>1.8799999999999997E-2</v>
       </c>
     </row>
+    <row r="11" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11">
+        <v>4.9969999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="L11">
+        <f>K11/100</f>
+        <v>3.2400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12">
+        <v>12.361000000000001</v>
+      </c>
+      <c r="K12">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L12">
+        <f>K12/100</f>
+        <v>5.4200000000000003E-3</v>
+      </c>
+    </row>
     <row r="14" spans="4:24" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>5</v>
@@ -1231,7 +1269,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>9.1823697103882385</v>
+        <v>9.3810338223515117</v>
       </c>
       <c r="N16">
         <f t="array" ref="N16:P18">LINEST(J16:J20,G16:G20,FALSE,TRUE)</f>
@@ -1244,11 +1282,11 @@
         <v>#N/A</v>
       </c>
       <c r="R16">
-        <f t="array" ref="R16:T18">LINEST(J15:J20,G15:H20,FALSE,TRUE)</f>
-        <v>48234.559097832098</v>
+        <f t="array" ref="R16:T18">LINEST(J15:J22,G15:G22^{1,2},FALSE,TRUE)</f>
+        <v>44852.959413553326</v>
       </c>
       <c r="S16">
-        <v>1699.4727655826005</v>
+        <v>1757.3053380552449</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1288,7 +1326,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>19.253627367578297</v>
+        <v>19.500148868328754</v>
       </c>
       <c r="N17">
         <v>87.561189275298304</v>
@@ -1300,10 +1338,10 @@
         <v>#N/A</v>
       </c>
       <c r="R17">
-        <v>5921.1253138322409</v>
+        <v>7606.8160020213954</v>
       </c>
       <c r="S17">
-        <v>94.763184105709968</v>
+        <v>119.33654739975191</v>
       </c>
       <c r="T17" t="e">
         <v>#N/A</v>
@@ -1342,7 +1380,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>30.303877159973613</v>
+        <v>30.483607122448632</v>
       </c>
       <c r="N18">
         <v>0.9949269467161288</v>
@@ -1354,10 +1392,10 @@
         <v>#N/A</v>
       </c>
       <c r="R18">
-        <v>0.99971159556152556</v>
+        <v>0.99902824902131404</v>
       </c>
       <c r="S18">
-        <v>0.62014835815330505</v>
+        <v>0.94481192719875018</v>
       </c>
       <c r="T18" t="e">
         <v>#N/A</v>
@@ -1396,7 +1434,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>39.474771099056021</v>
+        <v>39.535408959151582</v>
       </c>
     </row>
     <row r="20" spans="3:24" x14ac:dyDescent="0.25">
@@ -1423,7 +1461,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>48.998110560490659</v>
+        <v>48.890170330564885</v>
       </c>
       <c r="R20" t="s">
         <v>15</v>
@@ -1433,29 +1471,41 @@
       <c r="C21">
         <v>10.196999999999999</v>
       </c>
-      <c r="R21" s="8">
-        <f t="array" ref="R21:U24">LINEST(J15:J20,G15:G20^{1,2,3},FALSE,TRUE)</f>
-        <v>2534468.2669849354</v>
-      </c>
-      <c r="S21" s="8">
-        <v>-20795.820587164511</v>
-      </c>
-      <c r="T21" s="8">
-        <v>2127.9385296623559</v>
-      </c>
-      <c r="U21" s="8">
+      <c r="G21">
+        <v>3.2400000000000003E-3</v>
+      </c>
+      <c r="J21">
+        <v>4.9969999999999999</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="array" ref="R21:U24">LINEST(J15:J22,G15:G22^{1,2,3},FALSE,TRUE)</f>
+        <v>1853422.0735735728</v>
+      </c>
+      <c r="S21" s="5">
+        <v>-2513.0355277259919</v>
+      </c>
+      <c r="T21" s="5">
+        <v>2018.5322535679904</v>
+      </c>
+      <c r="U21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>5.4200000000000003E-3</v>
+      </c>
+      <c r="J22">
+        <v>12.361000000000001</v>
+      </c>
       <c r="R22">
-        <v>637768.42087306851</v>
+        <v>1648886.4272430437</v>
       </c>
       <c r="S22">
-        <v>17584.154823915513</v>
+        <v>42791.535509041554</v>
       </c>
       <c r="T22">
-        <v>116.34517913036807</v>
+        <v>260.09894712066694</v>
       </c>
       <c r="U22" t="e">
         <v>#N/A</v>
@@ -1463,10 +1513,10 @@
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="R23">
-        <v>0.99995395936357967</v>
+        <v>0.99922427187560603</v>
       </c>
       <c r="S23">
-        <v>0.28611106620896781</v>
+        <v>0.92472641909735132</v>
       </c>
       <c r="T23" t="e">
         <v>#N/A</v>
@@ -1477,10 +1527,10 @@
     </row>
     <row r="24" spans="3:24" x14ac:dyDescent="0.25">
       <c r="R24">
-        <v>21718.943027520541</v>
+        <v>2146.8524011042159</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T24" t="e">
         <v>#N/A</v>
@@ -1587,10 +1637,10 @@
     </row>
     <row r="35" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R35">
-        <v>48234.559097832098</v>
+        <v>44852.959413553326</v>
       </c>
       <c r="S35">
-        <v>1699.4727655826005</v>
+        <v>1757.3053380552449</v>
       </c>
     </row>
     <row r="37" spans="18:21" x14ac:dyDescent="0.25">
@@ -1600,13 +1650,13 @@
     </row>
     <row r="38" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R38">
-        <v>2534468.26698494</v>
+        <v>1853422.0735735728</v>
       </c>
       <c r="S38">
-        <v>-20795.820587164511</v>
+        <v>-2513.0355277259919</v>
       </c>
       <c r="T38">
-        <v>2127.9385296623559</v>
+        <v>2018.5322535679904</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -1619,11 +1669,11 @@
       </c>
       <c r="S39">
         <f t="shared" ref="S39:T39" si="4">S38/$R$38</f>
-        <v>-8.2052006166578213E-3</v>
+        <v>-1.3558894995140648E-3</v>
       </c>
       <c r="T39">
         <f t="shared" si="4"/>
-        <v>8.3959959466914098E-4</v>
+        <v>1.0890839611487251E-3</v>
       </c>
     </row>
     <row r="40" spans="18:21" x14ac:dyDescent="0.25">

--- a/0378-Oct-08-2015-Collision-Simulation-K.xlsx
+++ b/0378-Oct-08-2015-Collision-Simulation-K.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="195" windowWidth="20640" windowHeight="8970"/>
   </bookViews>
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -51,9 +54,6 @@
     <t>Quadratic</t>
   </si>
   <si>
-    <t>y fit quadratic</t>
-  </si>
-  <si>
     <t>Square Root</t>
   </si>
   <si>
@@ -71,6 +71,9 @@
   <si>
     <t>Quadratic coeffs</t>
   </si>
+  <si>
+    <t>y fit cubic</t>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +87,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -221,14 +224,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Force</a:t>
+              <a:rPr lang="en-CA" sz="1000" b="0"/>
+              <a:t>Force vs Displacement from Equilibrium</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> vs Displacement</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -251,19 +249,101 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:size val="5"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln>
+              <a:ln w="6350">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>[1]Stacks!$N$2:$N$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>[1]Stacks!$N$2:$N$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
-          </c:marker>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$G$15:$G$22</c:f>
@@ -336,11 +416,10 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="15875">
+            <a:ln w="6350">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
             </a:ln>
@@ -385,24 +464,24 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3810338223515117</c:v>
+                  <c:v>9.7511660700478444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.500148868328754</c:v>
+                  <c:v>19.362871706131731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.483607122448632</c:v>
+                  <c:v>29.946070077259829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.535408959151582</c:v>
+                  <c:v>39.17759947562589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.890170330564885</c:v>
+                  <c:v>49.375580846614994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -411,14 +490,8 @@
             <c:v>Quadratic</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
+            <a:ln w="28575">
+              <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -461,19 +534,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3810338223515117</c:v>
+                  <c:v>9.7511660700478444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.500148868328754</c:v>
+                  <c:v>19.362871706131731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.483607122448632</c:v>
+                  <c:v>29.946070077259829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.535408959151582</c:v>
+                  <c:v>39.17759947562589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.890170330564885</c:v>
+                  <c:v>49.375580846614994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -488,16 +561,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141421376"/>
-        <c:axId val="141421952"/>
+        <c:axId val="186256768"/>
+        <c:axId val="186257344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141421376"/>
+        <c:axId val="186256768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -508,8 +592,86 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Displacement (m) =&gt;</a:t>
+                  <a:rPr lang="en-CA" b="0"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" b="0" baseline="0"/>
+                  <a:t> (m)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" b="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" b="0">
+                    <a:latin typeface="Times New Roman"/>
+                    <a:cs typeface="Times New Roman"/>
+                  </a:rPr>
+                  <a:t>→</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="[&lt;=0]&quot;&quot;;[&gt;0.015]&quot;&quot;;General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="186257344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="186257344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" b="0"/>
+                  <a:t>F (N) </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>→</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" b="0"/>
+                  <a:t> </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -521,80 +683,30 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-                <a:ea typeface="Times New Roman"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="141421952"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="186256768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="141421952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Force (N) =&gt;</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141421376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr b="0">
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -640,6 +752,108 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Block"/>
+      <sheetName val="Cylinder"/>
+      <sheetName val="Stacks"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="L2">
+            <v>1</v>
+          </cell>
+          <cell r="M2">
+            <v>2.37</v>
+          </cell>
+          <cell r="N2">
+            <v>0.03</v>
+          </cell>
+          <cell r="O2">
+            <v>2.38</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="L3">
+            <v>2</v>
+          </cell>
+          <cell r="M3">
+            <v>4.8099999999999996</v>
+          </cell>
+          <cell r="N3">
+            <v>0.04</v>
+          </cell>
+          <cell r="O3">
+            <v>4.8009999999999993</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="L4">
+            <v>3</v>
+          </cell>
+          <cell r="M4">
+            <v>7.22</v>
+          </cell>
+          <cell r="N4">
+            <v>0.03</v>
+          </cell>
+          <cell r="O4">
+            <v>7.2219999999999995</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>4</v>
+          </cell>
+          <cell r="M5">
+            <v>9.65</v>
+          </cell>
+          <cell r="N5">
+            <v>0.04</v>
+          </cell>
+          <cell r="O5">
+            <v>9.6429999999999989</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>5</v>
+          </cell>
+          <cell r="M6">
+            <v>12.06</v>
+          </cell>
+          <cell r="N6">
+            <v>0.05</v>
+          </cell>
+          <cell r="O6">
+            <v>12.063999999999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>6</v>
+          </cell>
+          <cell r="M7">
+            <v>14.48</v>
+          </cell>
+          <cell r="N7">
+            <v>0.06</v>
+          </cell>
+          <cell r="O7">
+            <v>14.484999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -681,18 +895,53 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Classic">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Arial"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hang" typeface="돋움"/>
+        <a:font script="Hans" typeface="黑体"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Times New Roman"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐ明朝"/>
+        <a:font script="Hang" typeface="바탕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -714,41 +963,6 @@
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
@@ -929,18 +1143,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="39.5703125" customWidth="1"/>
+    <col min="19" max="19" width="38.28515625" customWidth="1"/>
+    <col min="20" max="20" width="36.42578125" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:24" x14ac:dyDescent="0.25">
@@ -1204,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
         <v>6</v>
@@ -1213,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="4:24" x14ac:dyDescent="0.25">
@@ -1235,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:L20" si="3">H15*$R$16+G15*$S$16</f>
+        <f>G15^3*$R$21+G15^2*$S$21+G15*$T$21</f>
         <v>0</v>
       </c>
       <c r="N15" t="s">
@@ -1245,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="V15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="4:24" x14ac:dyDescent="0.25">
@@ -1268,8 +1482,8 @@
         <v>11.673725711710757</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
-        <v>9.3810338223515117</v>
+        <f t="shared" ref="L16:L22" si="3">G16^3*$R$21+G16^2*$S$21+G16*$T$21</f>
+        <v>9.7511660700478444</v>
       </c>
       <c r="N16">
         <f t="array" ref="N16:P18">LINEST(J16:J20,G16:G20,FALSE,TRUE)</f>
@@ -1326,7 +1540,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>19.500148868328754</v>
+        <v>19.362871706131731</v>
       </c>
       <c r="N17">
         <v>87.561189275298304</v>
@@ -1380,7 +1594,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>30.483607122448632</v>
+        <v>29.946070077259829</v>
       </c>
       <c r="N18">
         <v>0.9949269467161288</v>
@@ -1434,7 +1648,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>39.535408959151582</v>
+        <v>39.17759947562589</v>
       </c>
     </row>
     <row r="20" spans="3:24" x14ac:dyDescent="0.25">
@@ -1461,10 +1675,10 @@
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>48.890170330564885</v>
+        <v>49.375580846614994</v>
       </c>
       <c r="R20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="3:24" x14ac:dyDescent="0.25">
@@ -1477,6 +1691,10 @@
       <c r="J21">
         <v>4.9969999999999999</v>
       </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>6.5767026665373614</v>
+      </c>
       <c r="R21" s="5">
         <f t="array" ref="R21:U24">LINEST(J15:J22,G15:G22^{1,2,3},FALSE,TRUE)</f>
         <v>1853422.0735735728</v>
@@ -1498,6 +1716,10 @@
       <c r="J22">
         <v>12.361000000000001</v>
       </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>11.161722903117345</v>
+      </c>
       <c r="R22">
         <v>1648886.4272430437</v>
       </c>
@@ -1541,7 +1763,7 @@
     </row>
     <row r="26" spans="3:24" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="3:24" x14ac:dyDescent="0.25">
@@ -1632,7 +1854,7 @@
     </row>
     <row r="34" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="18:21" x14ac:dyDescent="0.25">
@@ -1645,7 +1867,7 @@
     </row>
     <row r="37" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="18:21" x14ac:dyDescent="0.25">

--- a/0378-Oct-08-2015-Collision-Simulation-K.xlsx
+++ b/0378-Oct-08-2015-Collision-Simulation-K.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="195" windowWidth="20640" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="255" windowWidth="20640" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="[&lt;=0]&quot;&quot;;[&gt;0.015]&quot;&quot;;General" sourceLinked="0"/>
+        <c:numFmt formatCode="[=0]&quot;&quot;;General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -636,6 +636,7 @@
         <c:axId val="186257344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1143,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
